--- a/biology/Zoologie/Dyakiidae/Dyakiidae.xlsx
+++ b/biology/Zoologie/Dyakiidae/Dyakiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dyakiidae sont une famille d'escargots terrestres à respiration aérienne de la super-famille des Trochomorphoidea selon la Taxonomie des Gastropoda (Bouchet &amp; Rocroi, 2005). Certaines des espèces de cette famille sont senestres au niveau de l'enroulement de coquille.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Dyakiidae est endémique du Sundaland en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dyakiidae est endémique du Sundaland en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans cette famille, le nombre de chromosomes haploïdes est compris entre 26 et 30 (selon les valeurs de ce tableau)[2].
-La famille comprend également Quantula striata, le seul gastéropode terrestre connu à émettre de la lumière[3].
-Le système digestif se caractérise par une masse buccale petite, une mâchoire lisse et un estomac très simple avec des muscles faibles (comme c'est le cas chez la majorité des escargots terrestres)[2]. (Ces caractéristiques anatomiques incluent également la famille des Staffordiidae qui était considérée comme faisant partie des Dyakiidae au moment où l'étude a été réalisée.)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette famille, le nombre de chromosomes haploïdes est compris entre 26 et 30 (selon les valeurs de ce tableau).
+La famille comprend également Quantula striata, le seul gastéropode terrestre connu à émettre de la lumière.
+Le système digestif se caractérise par une masse buccale petite, une mâchoire lisse et un estomac très simple avec des muscles faibles (comme c'est le cas chez la majorité des escargots terrestres). (Ces caractéristiques anatomiques incluent également la famille des Staffordiidae qui était considérée comme faisant partie des Dyakiidae au moment où l'étude a été réalisée.)
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (3 mai 2023)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (3 mai 2023) :
 Asperitas Gude, 1911
 Bertia Ancey, 1887
 Craterodiscus McMichael, 1959
@@ -622,9 +640,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant montre les relations phylogéniques de cette famille et superfamille avec les autres familles du clade limacoide[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre les relations phylogéniques de cette famille et superfamille avec les autres familles du clade limacoide :
 </t>
         </is>
       </c>
@@ -653,9 +673,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dyakiidae Gude &amp; B. B. Woodward, 1921[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dyakiidae Gude &amp; B. B. Woodward, 1921.
 </t>
         </is>
       </c>
